--- a/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_land.xlsx
+++ b/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_land.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/models/cmcc-cm2-sr5/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF4EAD-6EE1-CD44-A21D-C2F069411F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="25220" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,12 @@
     <sheet name="9. River Routing" sheetId="11" r:id="rId11"/>
     <sheet name="10. Lakes" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="947">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -45,7 +51,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>CMCC-ESM2</t>
+    <t>CMCC-CM2-SR5</t>
   </si>
   <si>
     <t>Realm / Topic</t>
@@ -2542,13 +2548,342 @@
   </si>
   <si>
     <t>cmip6.land.lakes.wetlands.description</t>
+  </si>
+  <si>
+    <t>Community Land Model version 4.5 (CLM4.5)</t>
+  </si>
+  <si>
+    <t>water cycle, energy balance, vegetation, hydrology, snow, land cover and land use change, carbon and nitrogen cycling, rivers, urban</t>
+  </si>
+  <si>
+    <t>Vegetation composition, structure, and phenology; Prognostic absorption, reflection, and transmittance of solar radiation; Absorption and emission of longwave radiation; Momentum, sensible heat (ground and canopy), and latent heat (ground evaporation, canopy evaporation, transpiration) fluxes; Heat transfer in soil and snow including phase change; Canopy hydrology (interception, throughfall, and drip); Snow hydrology (snow accumulation and melt, compaction, water transfer between snow layers); Soil hydrology (surface runoff, infiltration, redistribution of water within the column, sub-surface drainage, groundwater, no explicit lateral flow); Stomatal physiology and photosynthesis; Lake temperatures and fluxes; Routing of runoff from rivers to ocean; Urban energy balance and climate; Carbon-nitrogen cycling and dynamics; Dynamic landcover change; wood harvest; No dynamic vegetation biogeography.</t>
+  </si>
+  <si>
+    <t>water vapour: explicit, longwave radiation: explicit</t>
+  </si>
+  <si>
+    <t>net transitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global land energy is approximately conserved in the coupled model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global land water is approximately conserved in the coupled model. </t>
+  </si>
+  <si>
+    <t>Carbon error checks at each timestep ensure carbon balance errors &lt; 0.002 gC/m2/yr.  Carbon is conserved through land cover transitions.</t>
+  </si>
+  <si>
+    <t>Timestepping of 30 minutes</t>
+  </si>
+  <si>
+    <t>CLM4.5</t>
+  </si>
+  <si>
+    <t>Fortran</t>
+  </si>
+  <si>
+    <t>Cartesian latitude longitude</t>
+  </si>
+  <si>
+    <t>The atmosphere model grid is a rectilinear cartesian grid in latitude longitude</t>
+  </si>
+  <si>
+    <t>The horizontal land grid is global and is the same as the atmosphere grid.  Each grid cell may have a fraction of land ranging from 0 to 1 (the remainder being ocean). The land/ocean mask is defined by the CMCC-CM2 ocean model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the vertical, CLM4.5 accounts for fifteen soil layers, ten lake layers, five urban layers, and up to five snow layers since their number vary according to the snow depth. </t>
+  </si>
+  <si>
+    <t>soil temperatures are employed to determine if water phase change will take place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The soil column is discretized into fifteen layers </t>
+  </si>
+  <si>
+    <t>The International Geosphere-Biosphere Programme (IGBP) soil dataset has been used to create a mineral soil texture dataset</t>
+  </si>
+  <si>
+    <t>The soil hydrology is computed in the soil column.</t>
+  </si>
+  <si>
+    <t>The soil column is discretized into fifteen layers  with a larger amount of layers (8 out of 15) in the first meter of soil, and the remaining 34 meter discretized into 7 layers.</t>
+  </si>
+  <si>
+    <t>Soil has 15 layers at layer depth (in m): 0.0071, 0.0279, 0.0623, 0.1189, 0.2122, 0.3661, 0.6198, 1.0380, 1.7276, 2.8646, 4.7392, 7.8298, 12.9253, 21.3265, 35.1776</t>
+  </si>
+  <si>
+    <t>SIMTOP model</t>
+  </si>
+  <si>
+    <t>soil color</t>
+  </si>
+  <si>
+    <t>Not represented</t>
+  </si>
+  <si>
+    <t>The soil temperature is computed in the soil column.</t>
+  </si>
+  <si>
+    <t>Phase change in soil.</t>
+  </si>
+  <si>
+    <t>The snowpack can have up to five layers.  Snow processes modeled include vegetation burial by snow, snow intercepted by vegetation, fraction of ground covered by snow, mass of ice and liquid water in snow layers, and snow compaction due to destructive metamorphism, overburden pressure, melt.  Snow albedo and solar absorption within each snow layer are simulated with the Snow, Ice, and Aerosol Radiative Model (SNICAR), which accounts for the effects of black and organic carbon and mineral dust particles within snow.</t>
+  </si>
+  <si>
+    <t>Soil has 15 layers and a subgrid structure. Each grid cell can have a different number of land units, each land unit can have a different number of columns, and each column can have multiple PFTs. Soil processes modeled include computation of ground albedos, water infiltration and phase change, water runoff and drainage, computation of vertical temperature profiles, and ground radiation.</t>
+  </si>
+  <si>
+    <t>Snow-covered and snow-free portions of vegetated and crop land units, and snow-covered and snow-free portions of glacier land units are separately simulated.</t>
+  </si>
+  <si>
+    <t>snow aging</t>
+  </si>
+  <si>
+    <t>Mass of water, mass of ice, layer thickness, temperature, snow water equivalent,</t>
+  </si>
+  <si>
+    <t>Soil mass of water, soil mass of ice, soil temperature, albedo</t>
+  </si>
+  <si>
+    <t>Vegetated surfaces are comprised of up to 15 possible plant functional types (PFTs) plus bare ground.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The changes in area over time associated with individual PFTs are prescribed through a forcing dataset. The forcing dataset consists of an annual time series of global grids, where each annual time slice describes the fractional area occupied by all PFTs and the annual wood harvest within each grid cell. This dataset is based on the Land Use Harmonization version 2 (LUH2) data. </t>
+  </si>
+  <si>
+    <t>PFTs are classified into three distinct phenological types that are represented by separate algorithms: an evergreen type, for which some fraction of annual leaf growth persists in the displayed pool for longer than one year; a seasonal-deciduous type with a single growing season per year, controlled mainly by temperature and daylength; and a stress-deciduous type with the potential for multiple growing seasons per year, controlled by temperature and soil moisture conditions.</t>
+  </si>
+  <si>
+    <t>LAI, SAI, top plant height, bottom plant height</t>
+  </si>
+  <si>
+    <t>Allocation of available carbon on each time step is prioritized, with first priority given to the demand for carbon to support maintenance respiration of live tissues. Second priority is to replenish the internal plant carbon pool that supports maintenance respiration during times when maintenance respiration exceeds photosynthesis (e.g. at night, during winter for perennial vegetation, or during periods of drought stress). Third priority is to support growth of new tissues, including allocation to storage pools from which new growth will be displayed in subsequent time steps.</t>
+  </si>
+  <si>
+    <t>The seasonal timing of new vegetation growth and litterfall responds to soil and air temperature, soil water availability, and daylength, in varying degrees depending on a specified phenology type for each PFT. The leaf area index is adjusted for vertical burying by snow.</t>
+  </si>
+  <si>
+    <t>Based on PFT distribution.</t>
+  </si>
+  <si>
+    <t>A 0.10 W/m2 surface energy balance is checked in the model.</t>
+  </si>
+  <si>
+    <t>Energy is computed at column level.</t>
+  </si>
+  <si>
+    <t>CLM includes a fully-prognostic treatment of the terrestrial carbon and nitrogen cycles including interactions between these cycles as mediated by biological mechanisms of plants and soil heterotrophs. The model is fully prognostic with respect to all carbon and nitrogen state variables in the vegetation, litter, and soil organic matter. The seasonal timing of new vegetation growth and litterfall is also prognostic, responding to soil and air temperature, soil water availability, and daylength, in varying degrees depending on a specified phenology type for each PFT. The prognostic LAI, SAI, and vegetation heights are utilized by the biophysical model.
+Separate state variables for C and N are tracked for leaf, live stem, dead stem, live coarse root, dead coarse root, and fine root pools. Each of these pools has two corresponding storage pools representing, respectively, short-term and long-term storage of non-structural carbohydrates and labile nitrogen. There are two additional carbon pools, one for the storage of growth respiration reserves, and another used to meet excess demand for maintenance respiration during periods with low photosynthesis. One additional nitrogen pool tracks retranslocated nitrogen, mobilized from leaf tissue prior to abscission and litterfall. Altogether there are 20 state variables for vegetation carbon, and 19 for vegetation nitrogen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On natural vegetation landunit, all PFTs compete for water and nutrients from same soil column.  Soil C and litter C is tracked within this soil column.  Vegetation C tracked for each PFT. </t>
+  </si>
+  <si>
+    <t>Vegetation: Leaf Area Index; leaf, live stem, dead stem, live coarse root, dead coarse root, fine root (each of these pools has two corresponding storage pools representing short-term and long-term storage of non-structural carbohydrates), growth respiration reserve, excess maintenance respiration, product (100 year, 10 year, 1 year); Soil and litter: coarse woody debris, 3 litter, and 3 soil pools as well as fluxes to and from each of these pools to each other.  GPP, NPP, and all respiration terms.</t>
+  </si>
+  <si>
+    <t>Vegetation: leaf, live stem, dead stem, live coarse root, dead coarse root, fine root (each of these pools has two corresponding storage pools representing short-term and long-term storage of non-structural carbohydrates), growth respiration reserve, excess maintenance respiration.</t>
+  </si>
+  <si>
+    <t>Not available.</t>
+  </si>
+  <si>
+    <t>Fixed carbon allocation dependent on PFT.  The model includes a dynamic allocation scheme for woody vegetation, in which case the ratio for carbon allocation between new stem and new leaf increases with increasing net primary production (NPP).</t>
+  </si>
+  <si>
+    <t>Fluxes of carbon and nitrogen from storage pools and into displayed tissue pools pass through a special transfer pool, maintained as a separate state variable for each tissue type. Storage and transfer pools are maintained separately to reduce the complexity of accounting for transfers into and out of storage over the course of a single growing season. PFTs are classified into three distinct phenological types that are represented by separate algorithms: an evergreen type, for which some fraction of annual leaf growth persists in the displayed pool for longer than one year; a seasonal-deciduous type with a single growing season per year, controlled mainly by temperature and daylength; and a stress-deciduous type with the potential for multiple growing seasons per year, controlled by temperature and soil moisture conditions. The three phenology types share a common set of control variables. The calculation of the phenology fluxes is generalized, operating identically for all three phenology types, given a specification of the common control variables.</t>
+  </si>
+  <si>
+    <t>Whole-plant mortality is parameterized very simply, assuming a mortality rate of 2% yr-1 for all vegetation types.  This is intended to represent the death of individuals from a stand of plants due to the aggregate of processes such as wind throw, insect attack, disease, extreme temperatures or drought, and age-related decline in vigor. These processes are referred to in aggregate as “gap-phase” mortality. Mortality due to fire and anthropogenic land cover change are treated separately.</t>
+  </si>
+  <si>
+    <t>Coarse woody debris, 3 litter pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically-resolved Century-based first-order decay </t>
+  </si>
+  <si>
+    <t>The Century-based decomposition cascade is a first-order decay model with parameters for base rate turnover times and respired fractions for each pool.  Carbon pools and decomposition are vertically-resolved.  Environmental modifiers that alter the base turnover rates include temperature, soil moisture, and oxygen concentration for each soil layer, and depth.  Decomposition rates can also be limited by availability of mineral nitrogen.</t>
+  </si>
+  <si>
+    <t>soil1c, soil2c, soil3c</t>
+  </si>
+  <si>
+    <t>Vertically-resolved Century-based first-order decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Century-based decomposition cascade is a first-order decay model with parameters for base rate turnover times and respired fractions for  each pool.  Carbon pools and decomposition are vertically-resolved.  Environmental modifiers that alter the base turnover rates include temperature, soil moisture, and oxygen concentration for each soil layer, and depth.  Decomposition rates can also be limited by availability of mineral nitrogen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On natural vegetation landunit, all PFTs compete for water and nutrients from same soil column. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetation: leaf, live stem, dead stem, live coarse root, dead coarse root, fine root (each of these pools has two corresponding storage pools representing short-term and long-term storage of non-structural carbohydrates), retranslocated nitrogen, product (100 year, 10 year, 1 year); Soil and litter: coarse woody debris, 3 litter, and 3 soil pools as well as fluxes to and from each of these pools to each other. </t>
+  </si>
+  <si>
+    <t>River Transport Model (RTM)</t>
+  </si>
+  <si>
+    <t>No tiling is used in the river routing model.</t>
+  </si>
+  <si>
+    <t>0.5x0.5degree grid</t>
+  </si>
+  <si>
+    <t>Surface runoff is routed as overland flow into the river-network. Coupling in the CMIP configuration of the model is assumed to be one-way: from land to river.</t>
+  </si>
+  <si>
+    <t>Flooding is not enabled in CMIP simulations.</t>
+  </si>
+  <si>
+    <t>river flow</t>
+  </si>
+  <si>
+    <t>Lake, Ice, Snow, and Sediment Simulator (LISSS)</t>
+  </si>
+  <si>
+    <t>10 layers. the default (50 m lake) body layer thicknesses are given by: 0.1, 1, 2, 3, 4, 5, 7, 7, 10.45, and 10.45 m, with node depths located at the center of each layer (i.e., 0.05, 0.6,
+2.1, 4.6, 8.1, 12.6, 18.6, 25.6, 34.325, 44.775 m).</t>
+  </si>
+  <si>
+    <t>temperature, evaporation, albedo, ice fraction, snow, surface energy balance</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>PEANO-DANIELE</t>
+  </si>
+  <si>
+    <t>Point of Contact</t>
+  </si>
+  <si>
+    <t>Spatial land surface heterogeneity in CLM is represented as a nested subgrid hierarchy in which grid cells are composed of multiple land units, snow/soil columns, and Plant Functional Types (PFTs). Each grid cell can have a different number of land units, each land unit can have a different number of columns, and each column can have multiple PFTs. The first subgrid level, the land unit, is intended to capture the broadest spatial patterns of subgrid heterogeneity. CLM4.5 accounts for glacier, lake, urban, and vegetated. The land unit level can be used to further delineate these patterns. For example, the urban land unit is divided into density classes representing the tall building district, high density, and medium density urban areas.  The second subgrid level, the column, is intended to capture potential variability in the soil and snow state variables within a single land unit. For example, the vegetated land unit could contain several columns with independently evolving vertical profiles of soil water and temperature. The central characteristic of the column subgrid level is that this is where the state variables for water and energy in the soil and snow are defined, as well as the fluxes of these components within the soil and snow. Regardless of the number and type of PFTs occupying space on the column, the column physics operates with a single set of upper boundary fluxes, as well as a single set of transpiration fluxes from multiple soil levels. These boundary fluxes are weighted averages over all PFTs. Currently, for glacier, lake and vegetated land units, a single column is assigned to each land unit. The urban land units have five columns (roof, sunlit walls and shaded walls, and pervious and impervious canyon floor). The land/sea mask is defined by the CMCC-CM2 ocean model.  Each land grid cell has one elevation, which is defined by the atmosphere model.</t>
+  </si>
+  <si>
+    <t>The main CLM4.5 parameters have been kept to default values. The snow aging factor has been tuned to 3 times larger values to make snow aging faster compared to the default configuration. This operation has been done to reach a stable pre-industrial condition.</t>
+  </si>
+  <si>
+    <t>The model parameterizes interception, throughfall, canopy drip, snow accumulation and melt, water transfer between snow layers, infiltration, evaporation, surface runoff, sub-surface drainage, redistribution within the soil column, and groundwater discharge and recharge to simulate changes in canopy water, surface water, snow water, soil water, and soil ice, and water in the unconfined aquifer (all in kg m-2 or mm of H2O).</t>
+  </si>
+  <si>
+    <t>The second law of heat conduction is solved numerically to calculate the soil, snow, and surface water temperatures for a fifteen-layer soil column with up to five overlying layers of snow and a single surface water layer with the boundary conditions of the heat flux into the top soil, snow, and surface water layers from the overlying atmosphere and zero heat flux at the bottom of the soil column. The temperature profile is calculated first without phase change and then readjusted for phase change.</t>
+  </si>
+  <si>
+    <t>Snow, Ice, and Aerosol Radiative Model (SNICAR)</t>
+  </si>
+  <si>
+    <t>Vegetated surfaces are comprised of up to 15 possible plant functional types (PFTs) plus bare ground. Vegetation structure is defined by leaf and stem area indices and canopy top and bottom heights. Vegetation state (LAI, SAI, canopy top and bottom heights) are calculated prognostically.</t>
+  </si>
+  <si>
+    <t>cherchi_2019</t>
+  </si>
+  <si>
+    <t>oleson_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Community Land Model version 4.5 (CLM4.5) is the land model for the CMCC Coupled Model version 2 (CMCC-CM2). cherchi_2019 document CMCC-CM2 and CLM4.5. A full Technical Description of CLM4.5 oleson_2013 is available here: http://www.cesm.ucar.edu/models/cesm1.2/clm/CLM45_Tech_Note.pdf.
+The model formalizes and quantifies the land surface and terrestrial ecosystem processes. In particular, CLM4.5 describes the cycling of energy, water, and chemical elements which impact and are impacted by climate. The land surface, indeed, is a critical interface through which climate change impacts humans and ecosystems and through which humans and ecosystems can affect global environmental change.
+The model represents many aspects of the land surface such as surface heterogeneity and consists of components or submodels related to land biogeophysics, the hydrologic cycle, biogeochemistry, human dimensions, and ecosystem dynamics. </t>
+  </si>
+  <si>
+    <t>IGBP_2000</t>
+  </si>
+  <si>
+    <t>bonan_2002</t>
+  </si>
+  <si>
+    <t>batjes_2006</t>
+  </si>
+  <si>
+    <t>The soil texture and organic matter content determine soil thermal and hydrologic properties. The International Geosphere-Biosphere Programme (IGBP) soil dataset IGBP_2000 of 4931 soil mapping units and their sand and clay content for each soil layer were used to create a mineral soil texture dataset bonan_2002. Soil organic matter data is merged from two sources. The majority of the globe is from ISRIC-WISE batjes_2006. The high latitudes come from the 0.25° version of the Northern Circumpolar Soil Carbon Database hugelius_2013. Both datasets report carbon down to 1m depth.</t>
+  </si>
+  <si>
+    <t>hugelius_2013</t>
+  </si>
+  <si>
+    <t>Soil organic matter data is merged from two sources. The majority of the globe is from ISRIC-WISE batjes_2006. The high latitudes come from the 0.25° version of the Northern Circumpolar Soil Carbon Database hugelius_2013. Both datasets report carbon down to 1m depth.</t>
+  </si>
+  <si>
+    <t>soil albedos vary with color class. CLM soil colors are prescribed so that they best reproduce observed MODIS local
+solar noon surface albedo values at the CLM grid cell following the methods of lawrence_2007.</t>
+  </si>
+  <si>
+    <t>lawrence_2007</t>
+  </si>
+  <si>
+    <t>Determination of water table depth is based on work by niu_2007.</t>
+  </si>
+  <si>
+    <t>niu_2007</t>
+  </si>
+  <si>
+    <t>Drainage or sub-surface runoff is based on the SIMTOP scheme niu_2005 with a modification to account for reduced drainage in frozen soils.</t>
+  </si>
+  <si>
+    <t>niu_2005</t>
+  </si>
+  <si>
+    <t>collatz_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf stomatal resistance is calculated from the Ball-Berry conductance model as described by collatz_1991 and implemented in global climate models sellers_1996. The model relates stomatal conductance (i.e., the inverse of resistance) to net leaf photosynthesis, scaled by the relative humidity at the leaf surface and the CO2 concentration at the leaf surface. </t>
+  </si>
+  <si>
+    <t>sellers_1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthesis in C3 plants is based on Farquhar model.  C4 photosynthesis is based on Collatz.  The implementation is described in bonan_2011. </t>
+  </si>
+  <si>
+    <t>bonan_2011</t>
+  </si>
+  <si>
+    <t>Maintenance respiration is defined as the carbon cost to support the metabolic activity of existing live tissue. Under the assumption that tissue nitrogen content is a suitable index of cellular metabolic rate, maintenance respiration costs for live tissues (leaf, live stem, live coarse root, and fine root) are calculated as functions tissue nitrogen content and the relevant temperature, following the empirical relationship reported by ryan_1991.</t>
+  </si>
+  <si>
+    <t>ryan_1991</t>
+  </si>
+  <si>
+    <t>Growth respiration is defined as the additional carbon cost for the synthesis of new growth. Growth respiration is calculated as a factor of 0.3 times the total carbon in new growth on a given timestep, based on construction costs for a range of woody and non- woody tissues larcher_1995.</t>
+  </si>
+  <si>
+    <t>larcher_1995</t>
+  </si>
+  <si>
+    <t>The RTM was developed to route total runoff from the land surface model to either the active ocean or marginal seas which enables the hydrologic cycle to be closed. The RTM uses a linear transport scheme to route water from each grid cell to its downstream neighboring grid cell. Downstream water flow direction in each grid cell is determined as one of eight compass points (north, northeast, east, southeast, south, southwest, west, and northwest) based on the steepest downhill slope as determined from a digital elevation model graham_1999.</t>
+  </si>
+  <si>
+    <t>graham_1999</t>
+  </si>
+  <si>
+    <t>subin_2012</t>
+  </si>
+  <si>
+    <t>The lake model, denoted the Lake, Ice, Snow, and Sediment Simulator (LISSS), is from subin_2012. Lakes have spatially variable depth; Lake physics includes freezing and thawing in the lake body, resolved snow layers, and “soil” and bedrock layers below the lake body. Temperatures and ice fractions are simulated for 10 layers; Lake surface fluxes generally follow the formulations for non-vegetated surfaces, including the calculations of aerodynamic resistances; however, the lake surface temperature is solved for simultaneously with the surface fluxes; For direct radiation, the albedo for lakes with ground temperature above freezing is given by pivovarov_1972.</t>
+  </si>
+  <si>
+    <t>pivovarov_1972</t>
+  </si>
+  <si>
+    <t>the Global Lake and Wetland Database lehner_2004 is currently used to prescribe lake fraction in each land model grid cell, for a total of 2.3 million km-2.</t>
+  </si>
+  <si>
+    <t>lehner_2004</t>
+  </si>
+  <si>
+    <t>MATERIA-STEFANO</t>
+  </si>
+  <si>
+    <t>Contributor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2744,6 +3079,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2790,7 +3133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2822,9 +3165,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2856,6 +3217,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3031,24 +3410,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3056,7 +3435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3088,52 +3467,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3149,7 +3528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3157,7 +3536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3165,13 +3544,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3179,28 +3558,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>690</v>
       </c>
@@ -3208,12 +3589,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>693</v>
       </c>
@@ -3221,7 +3602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3232,10 +3613,10 @@
         <v>695</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>696</v>
       </c>
@@ -3243,7 +3624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3254,15 +3635,17 @@
         <v>698</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>699</v>
       </c>
@@ -3270,7 +3653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -3281,15 +3664,17 @@
         <v>701</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>702</v>
       </c>
@@ -3297,7 +3682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
@@ -3308,10 +3693,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>705</v>
       </c>
@@ -3319,7 +3706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -3330,17 +3717,19 @@
         <v>707</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>895</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3349,20 +3738,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>708</v>
       </c>
@@ -3370,12 +3761,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>711</v>
       </c>
@@ -3383,7 +3774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3394,10 +3785,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>714</v>
       </c>
@@ -3405,7 +3798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3416,15 +3809,17 @@
         <v>716</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>717</v>
       </c>
@@ -3432,7 +3827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -3443,15 +3838,17 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>720</v>
       </c>
@@ -3459,7 +3856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
@@ -3470,10 +3867,12 @@
         <v>722</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>723</v>
       </c>
@@ -3481,7 +3880,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>116</v>
       </c>
@@ -3492,10 +3891,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>727</v>
       </c>
@@ -3503,7 +3904,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -3514,10 +3915,12 @@
         <v>730</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>731</v>
       </c>
@@ -3525,7 +3928,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>121</v>
       </c>
@@ -3536,10 +3939,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>735</v>
       </c>
@@ -3547,7 +3952,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
+    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -3558,13 +3963,15 @@
         <v>738</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>740</v>
+      </c>
       <c r="AA37" s="6" t="s">
         <v>739</v>
       </c>
@@ -3575,7 +3982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>741</v>
       </c>
@@ -3583,7 +3990,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>116</v>
       </c>
@@ -3594,10 +4001,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
+    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>745</v>
       </c>
@@ -3605,7 +4014,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
@@ -3616,15 +4025,17 @@
         <v>748</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="178" customHeight="1">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
+    <row r="46" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>749</v>
       </c>
@@ -3632,7 +4043,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -3643,12 +4054,12 @@
         <v>752</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
+    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
+    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
         <v>753</v>
@@ -3663,7 +4074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>755</v>
       </c>
@@ -3671,7 +4082,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
+    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>65</v>
       </c>
@@ -3682,8 +4093,10 @@
         <v>758</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>759</v>
+      </c>
       <c r="AA55" s="6" t="s">
         <v>759</v>
       </c>
@@ -3694,7 +4107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
+    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>761</v>
       </c>
@@ -3702,7 +4115,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
+    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>46</v>
       </c>
@@ -3713,15 +4126,17 @@
         <v>764</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="24" customHeight="1">
+    <row r="59" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="178" customHeight="1">
-      <c r="B60" s="11"/>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
+    <row r="60" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>765</v>
       </c>
@@ -3729,7 +4144,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
+    <row r="63" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>46</v>
       </c>
@@ -3740,15 +4155,17 @@
         <v>767</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
+    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="B65" s="11"/>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>768</v>
       </c>
@@ -3756,12 +4173,12 @@
         <v>769</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
+    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>771</v>
       </c>
@@ -3769,7 +4186,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
+    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>65</v>
       </c>
@@ -3780,8 +4197,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
+        <v>776</v>
+      </c>
       <c r="AA73" s="6" t="s">
         <v>775</v>
       </c>
@@ -3792,7 +4211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>777</v>
       </c>
@@ -3800,7 +4219,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
+    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>65</v>
       </c>
@@ -3811,13 +4230,15 @@
         <v>780</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
+    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="AA78" s="6" t="s">
         <v>753</v>
       </c>
@@ -3832,33 +4253,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B41" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B73 B55" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>AA37:AC37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B78" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>AA51:AD51</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>AA55:AC55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AD78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3866,20 +4272,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>781</v>
       </c>
@@ -3887,12 +4295,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>784</v>
       </c>
@@ -3900,7 +4308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3911,10 +4319,12 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>787</v>
       </c>
@@ -3922,7 +4332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3933,15 +4343,17 @@
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>790</v>
       </c>
@@ -3949,7 +4361,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>116</v>
       </c>
@@ -3960,10 +4372,12 @@
         <v>793</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>794</v>
       </c>
@@ -3971,7 +4385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>121</v>
       </c>
@@ -3982,10 +4396,12 @@
         <v>796</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>797</v>
       </c>
@@ -3993,7 +4409,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -4004,12 +4420,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
         <v>753</v>
@@ -4024,7 +4440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>801</v>
       </c>
@@ -4032,7 +4448,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -4043,10 +4459,12 @@
         <v>804</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>805</v>
       </c>
@@ -4054,7 +4472,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -4065,15 +4483,17 @@
         <v>807</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
+    <row r="33" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>808</v>
       </c>
@@ -4081,12 +4501,12 @@
         <v>809</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
+    <row r="37" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>811</v>
       </c>
@@ -4094,7 +4514,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>116</v>
       </c>
@@ -4105,10 +4525,12 @@
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
+    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>815</v>
       </c>
@@ -4116,7 +4538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>65</v>
       </c>
@@ -4127,8 +4549,10 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA45" s="6" t="s">
         <v>366</v>
       </c>
@@ -4139,7 +4563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
+    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>818</v>
       </c>
@@ -4147,7 +4571,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>65</v>
       </c>
@@ -4158,13 +4582,15 @@
         <v>821</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
+    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>823</v>
+      </c>
       <c r="AA50" s="6" t="s">
         <v>822</v>
       </c>
@@ -4178,7 +4604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
+    <row r="52" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>825</v>
       </c>
@@ -4186,7 +4612,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>116</v>
       </c>
@@ -4197,10 +4623,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
+    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>829</v>
       </c>
@@ -4208,7 +4636,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
+    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>116</v>
       </c>
@@ -4219,10 +4647,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
+    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>833</v>
       </c>
@@ -4230,12 +4660,12 @@
         <v>834</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
+    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>836</v>
       </c>
@@ -4243,7 +4673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>46</v>
       </c>
@@ -4254,39 +4684,29 @@
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
+    <row r="67" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>943</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B58 B54 B41" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B50" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AD50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4294,46 +4714,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -4341,70 +4763,232 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>782</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B36" xr:uid="{4157315A-3CE2-2849-B11C-85E1FC736704}">
       <formula1>"Top Level,Key Properties,Grid,Soil,Snow,Vegetation,Energy Balance,Carbon Cycle,Nitrogen Cycle,River Routing,Lakes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -4412,12 +4996,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4425,7 +5009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -4436,10 +5020,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -4447,7 +5033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4458,15 +5044,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
@@ -4474,7 +5062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -4485,15 +5073,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -4501,7 +5091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
+    <row r="19" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -4512,15 +5102,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1">
+    <row r="20" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="178" customHeight="1">
-      <c r="B21" s="11"/>
-    </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
+    <row r="21" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -4528,7 +5120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
+    <row r="24" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
@@ -4539,13 +5131,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
+    <row r="25" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="B26" s="11"/>
+    <row r="26" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="AA26" s="6" t="s">
         <v>68</v>
       </c>
@@ -4565,434 +5159,561 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
+    <row r="27" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
+    <row r="30" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
+    <row r="31" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="10" t="s">
+    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="AA35" s="6" t="s">
+    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AB35" s="6" t="s">
+      <c r="AB36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AC36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AD36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AE36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AF36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AG35" s="6" t="s">
+      <c r="AG36" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:33" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" ht="24" customHeight="1">
+    <row r="42" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="B43" s="8" t="s">
+    <row r="47" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="178" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="47" spans="1:33" ht="24" customHeight="1">
-      <c r="A47" s="12" t="s">
+    <row r="48" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="13" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="8" t="s">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
+    <row r="57" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+    <row r="62" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="B62" s="8" t="s">
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="178" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="12" t="s">
+    <row r="67" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="13" t="s">
+    <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
+    <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
+    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
+    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="11" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
+    <row r="90" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B94" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="12" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B103" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="13" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B106" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
+    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="8" t="s">
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
-      <c r="B105" s="11"/>
+    <row r="109" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
+        <v>909</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B27" xr:uid="{FE464D2B-CB49-8C41-B225-B46A63F7E250}">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AG35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA36:AG36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5001,20 +5722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>149</v>
       </c>
@@ -5022,12 +5745,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
@@ -5035,7 +5758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5046,10 +5769,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>155</v>
       </c>
@@ -5057,7 +5782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -5068,15 +5793,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>158</v>
       </c>
@@ -5084,12 +5811,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>161</v>
       </c>
@@ -5097,7 +5824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -5108,15 +5835,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="20" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>164</v>
       </c>
@@ -5124,7 +5853,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>116</v>
       </c>
@@ -5135,10 +5864,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>168</v>
       </c>
@@ -5146,12 +5877,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>171</v>
       </c>
@@ -5159,7 +5890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -5170,15 +5901,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>174</v>
       </c>
@@ -5186,7 +5919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>121</v>
       </c>
@@ -5197,15 +5930,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5214,20 +5949,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>178</v>
       </c>
@@ -5235,12 +5972,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>181</v>
       </c>
@@ -5248,7 +5985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5259,10 +5996,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>184</v>
       </c>
@@ -5270,7 +6007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -5281,15 +6018,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>187</v>
       </c>
@@ -5297,7 +6036,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -5308,10 +6047,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>191</v>
       </c>
@@ -5319,7 +6060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>121</v>
       </c>
@@ -5330,10 +6071,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>195</v>
       </c>
@@ -5341,7 +6084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -5352,15 +6095,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>199</v>
       </c>
@@ -5368,12 +6113,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>202</v>
       </c>
@@ -5381,7 +6126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -5392,15 +6137,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="178" customHeight="1">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>205</v>
       </c>
@@ -5408,7 +6155,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -5419,10 +6166,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>209</v>
       </c>
@@ -5430,7 +6179,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
@@ -5441,10 +6190,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>213</v>
       </c>
@@ -5452,7 +6203,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
@@ -5463,10 +6214,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>217</v>
       </c>
@@ -5474,7 +6227,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
@@ -5485,10 +6238,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>221</v>
       </c>
@@ -5496,7 +6251,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>46</v>
       </c>
@@ -5507,10 +6262,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>225</v>
       </c>
@@ -5518,7 +6275,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>116</v>
       </c>
@@ -5529,10 +6286,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>229</v>
       </c>
@@ -5540,7 +6299,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>46</v>
       </c>
@@ -5551,10 +6310,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>233</v>
       </c>
@@ -5562,12 +6323,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
+    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>236</v>
       </c>
@@ -5575,7 +6336,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
+    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>116</v>
       </c>
@@ -5586,10 +6347,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    <row r="69" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>240</v>
       </c>
@@ -5597,7 +6360,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
+    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>65</v>
       </c>
@@ -5608,13 +6371,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
+    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
+    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="AA74" s="6" t="s">
         <v>244</v>
       </c>
@@ -5628,671 +6393,721 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="AA75" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD75" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
+    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
-      <c r="AA78" s="6" t="s">
+    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AB78" s="6" t="s">
+      <c r="AA79" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB79" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AC78" s="6" t="s">
+      <c r="AC79" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="14" t="s">
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="12" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="13" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
+    <row r="90" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="B90" s="8" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="178" customHeight="1">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
+    <row r="92" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="11" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="8" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
+    <row r="101" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B103" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="8" t="s">
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
+    <row r="106" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
+    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
+    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
+    <row r="113" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="24" customHeight="1">
-      <c r="B113" s="10" t="s">
+    <row r="114" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-      <c r="AA114" s="6" t="s">
+    <row r="115" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA115" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AB114" s="6" t="s">
+      <c r="AB115" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC114" s="6" t="s">
+      <c r="AC115" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
+    <row r="117" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B117" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="24" customHeight="1">
-      <c r="A117" s="14" t="s">
+    <row r="118" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B118" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
-      <c r="AA118" s="6" t="s">
+    <row r="119" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA119" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AB118" s="6" t="s">
+      <c r="AB119" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AC118" s="6" t="s">
+      <c r="AC119" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="AD118" s="6" t="s">
+      <c r="AD119" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AE118" s="6" t="s">
+      <c r="AE119" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="24" customHeight="1">
-      <c r="A121" s="12" t="s">
+    <row r="122" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B122" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="24" customHeight="1">
-      <c r="B122" s="13" t="s">
+    <row r="123" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
+    <row r="125" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B125" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
+    <row r="126" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:31" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
+    <row r="127" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B129" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
+    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B130" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
+    <row r="131" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
+    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="8" t="s">
+    <row r="135" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="178" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="12" t="s">
+    <row r="136" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B139" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="13" t="s">
+    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="9" t="s">
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="14" t="s">
+    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="8" t="s">
+    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="178" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:33" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
+    <row r="145" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="11" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B147" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
+    <row r="148" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="24" customHeight="1">
-      <c r="B148" s="10" t="s">
+    <row r="149" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
-      <c r="AA149" s="6" t="s">
+    <row r="150" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA150" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="AB149" s="6" t="s">
+      <c r="AB150" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AC149" s="6" t="s">
+      <c r="AC150" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AD149" s="6" t="s">
+      <c r="AD150" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AE149" s="6" t="s">
+      <c r="AE150" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AF149" s="6" t="s">
+      <c r="AF150" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="AG149" s="6" t="s">
+      <c r="AG150" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="24" customHeight="1">
-      <c r="A152" s="12" t="s">
+    <row r="153" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="24" customHeight="1">
-      <c r="B153" s="13" t="s">
+    <row r="154" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
+    <row r="156" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B156" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="24" customHeight="1">
-      <c r="A156" s="14" t="s">
+    <row r="157" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B157" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="24" customHeight="1">
-      <c r="B157" s="8" t="s">
+    <row r="158" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="178" customHeight="1">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="160" spans="1:33" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
+    <row r="159" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B161" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="24" customHeight="1">
-      <c r="A161" s="14" t="s">
+    <row r="162" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B162" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="A164" s="9" t="s">
+    <row r="163" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B165" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="24" customHeight="1">
-      <c r="A165" s="14" t="s">
+    <row r="166" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B166" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="24" customHeight="1">
-      <c r="B166" s="8" t="s">
+    <row r="167" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="178" customHeight="1">
-      <c r="B167" s="11"/>
-    </row>
-    <row r="169" spans="1:29" ht="24" customHeight="1">
-      <c r="A169" s="9" t="s">
+    <row r="168" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B170" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="14" t="s">
+    <row r="171" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C171" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="24" customHeight="1">
-      <c r="B171" s="8" t="s">
+    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="178" customHeight="1">
-      <c r="B172" s="11"/>
-    </row>
-    <row r="174" spans="1:29" ht="24" customHeight="1">
-      <c r="A174" s="9" t="s">
+    <row r="173" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B175" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="14" t="s">
+    <row r="176" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B176" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="24" customHeight="1">
-      <c r="B176" s="11"/>
-      <c r="AA176" s="6" t="s">
+    <row r="177" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA177" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AB176" s="6" t="s">
+      <c r="AB177" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AC176" s="6" t="s">
+      <c r="AC177" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1">
-      <c r="A178" s="9" t="s">
+    <row r="179" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="24" customHeight="1">
-      <c r="A179" s="14" t="s">
+    <row r="180" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B180" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C180" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="24" customHeight="1">
-      <c r="B180" s="10" t="s">
+    <row r="181" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
-      <c r="AA181" s="6" t="s">
+    <row r="182" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA182" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AB181" s="6" t="s">
+      <c r="AB182" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AC181" s="6" t="s">
+      <c r="AC182" s="6" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="183" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA183" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB183" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC183" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B163 B127 B110 B96 B83" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B69" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B75" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>AA74:AD74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AC78</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79 B115 B177 B182:B183" xr:uid="{00000000-0002-0000-0400-000004000000}">
+      <formula1>AA79:AC79</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119" xr:uid="{00000000-0002-0000-0400-000009000000}">
+      <formula1>AA119:AE119</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>AA114:AC114</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
-      <formula1>AA118:AE118</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
-      <formula1>AA149:AG149</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176">
-      <formula1>AA176:AC176</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
-      <formula1>AA181:AC181</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150" xr:uid="{00000000-0002-0000-0400-00000B000000}">
+      <formula1>AA150:AG150</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6300,20 +7115,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AF73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>346</v>
       </c>
@@ -6321,12 +7138,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>349</v>
       </c>
@@ -6334,7 +7151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6345,10 +7162,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>352</v>
       </c>
@@ -6356,7 +7175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -6367,15 +7186,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>355</v>
       </c>
@@ -6383,7 +7204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -6394,15 +7215,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>358</v>
       </c>
@@ -6410,7 +7233,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
+    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
@@ -6421,10 +7244,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
+    <row r="20" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>362</v>
       </c>
@@ -6432,7 +7257,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
+    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -6443,8 +7268,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>366</v>
       </c>
@@ -6455,7 +7282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
+    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>368</v>
       </c>
@@ -6463,7 +7290,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
+    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -6474,8 +7301,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA28" s="6" t="s">
         <v>366</v>
       </c>
@@ -6486,7 +7315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
+    <row r="30" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>373</v>
       </c>
@@ -6494,7 +7323,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
+    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
@@ -6505,8 +7334,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA32" s="6" t="s">
         <v>366</v>
       </c>
@@ -6517,7 +7348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
+    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>377</v>
       </c>
@@ -6525,7 +7356,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
+    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -6536,8 +7367,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA36" s="6" t="s">
         <v>366</v>
       </c>
@@ -6548,7 +7381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1">
+    <row r="38" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>381</v>
       </c>
@@ -6556,7 +7389,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>65</v>
       </c>
@@ -6567,8 +7400,10 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA40" s="6" t="s">
         <v>366</v>
       </c>
@@ -6579,7 +7414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1">
+    <row r="42" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>385</v>
       </c>
@@ -6587,7 +7422,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>65</v>
       </c>
@@ -6598,13 +7433,15 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="AA45" s="6" t="s">
         <v>389</v>
       </c>
@@ -6615,198 +7452,291 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+    <row r="46" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+    <row r="51" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="AA51" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB51" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AC50" s="6" t="s">
+      <c r="AC51" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="AD50" s="6" t="s">
+      <c r="AD51" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="AE50" s="6" t="s">
+      <c r="AE51" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
+    <row r="57" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
+    <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
+    <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
+    <row r="63" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+    <row r="65" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
+    <row r="66" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
+    <row r="71" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="AA68" s="6" t="s">
+    <row r="72" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA72" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AB68" s="6" t="s">
+      <c r="AB72" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="AC68" s="6" t="s">
+      <c r="AC72" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AD72" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AE68" s="6" t="s">
+      <c r="AE72" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="AF68" s="6" t="s">
+      <c r="AF72" s="6" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="73" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="5">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B45:B46 B40 B36 B32 B28" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA24:AC24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B54" xr:uid="{00000000-0002-0000-0500-000007000000}">
+      <formula1>AA51:AE51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AC32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67" xr:uid="{00000000-0002-0000-0500-000008000000}">
+      <formula1>AA67:AD67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AC36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>AA40:AC40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AE50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AF68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72:B73" xr:uid="{00000000-0002-0000-0500-000009000000}">
+      <formula1>AA72:AF72</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6814,20 +7744,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AM111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>416</v>
       </c>
@@ -6835,12 +7767,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>419</v>
       </c>
@@ -6848,7 +7780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6859,10 +7791,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>422</v>
       </c>
@@ -6870,7 +7802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -6881,15 +7813,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>425</v>
       </c>
@@ -6897,7 +7831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>121</v>
       </c>
@@ -6908,10 +7842,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:29" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>428</v>
       </c>
@@ -6919,7 +7855,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
+    <row r="18" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>116</v>
       </c>
@@ -6930,10 +7866,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1">
+    <row r="19" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>432</v>
       </c>
@@ -6941,7 +7879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
+    <row r="22" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -6952,15 +7890,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
+    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="178" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
+    <row r="24" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>435</v>
       </c>
@@ -6968,7 +7908,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
+    <row r="27" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -6979,8 +7919,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>439</v>
+      </c>
       <c r="AA28" s="6" t="s">
         <v>439</v>
       </c>
@@ -6991,393 +7933,658 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+    <row r="29" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="24" customHeight="1">
-      <c r="B32" s="10" t="s">
+    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
+    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="AB33" s="6" t="s">
+      <c r="AA34" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB34" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AC33" s="6" t="s">
+      <c r="AC34" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AD34" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AE33" s="6" t="s">
+      <c r="AE34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF33" s="6" t="s">
+      <c r="AF34" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
+    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1">
-      <c r="B37" s="10" t="s">
+    <row r="41" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
+    <row r="42" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="AB38" s="6" t="s">
+      <c r="AA42" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB42" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AC42" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AD42" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AE42" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AF38" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AG38" s="6" t="s">
+      <c r="AG42" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AH38" s="6" t="s">
+      <c r="AH42" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AI38" s="6" t="s">
+      <c r="AI42" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="AJ38" s="6" t="s">
+      <c r="AJ42" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="AK38" s="6" t="s">
+      <c r="AK42" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AL38" s="6" t="s">
+      <c r="AL42" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AM38" s="6" t="s">
+      <c r="AM42" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+    <row r="43" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE43" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH43" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI43" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ43" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK43" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM43" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE44" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI44" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ44" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK44" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL44" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM44" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH45" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI45" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ45" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK45" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL45" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM45" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE46" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF46" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG46" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH46" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI46" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ46" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK46" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL46" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM46" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD47" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE47" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG47" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH47" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI47" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ47" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK47" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM47" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
+    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
+    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA51" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AB42" s="6" t="s">
+      <c r="AB51" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="AC42" s="6" t="s">
+      <c r="AC51" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AD51" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
+    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="48" spans="1:39" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
+    <row r="58" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="59" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC54" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA63" s="6" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD63" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="24" customHeight="1">
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="24" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
+    <row r="68" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA72" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB72" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AB72" s="6" t="s">
+      <c r="AC72" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AC72" s="6" t="s">
+      <c r="AD72" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
+    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="178" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:29" ht="24" customHeight="1">
+    <row r="77" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="24" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="AA81" s="6" t="s">
         <v>366</v>
       </c>
@@ -7388,169 +8595,244 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="24" customHeight="1">
+    <row r="83" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="178" customHeight="1">
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
+    <row r="86" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="11" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA90" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB90" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC90" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="24" customHeight="1">
-      <c r="B90" s="10" t="s">
+    <row r="99" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-      <c r="AA91" s="6" t="s">
+    <row r="100" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA100" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="AB91" s="6" t="s">
+      <c r="AB100" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="AC91" s="6" t="s">
+      <c r="AC100" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="AD91" s="6" t="s">
+      <c r="AD100" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="AE91" s="6" t="s">
+      <c r="AE100" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="AF91" s="6" t="s">
+      <c r="AF100" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
+    <row r="101" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA101" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB101" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC101" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD101" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE101" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF101" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B103" s="9" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
+    <row r="104" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
+    <row r="105" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="178" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
+    <row r="106" spans="1:32" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="14" t="s">
+    <row r="109" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="8" t="s">
+    <row r="110" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+    <row r="111" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="11" t="s">
+        <v>874</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B59" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B29 B90 B81 B63" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>AA28:AC28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AF33</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100:B101 B34:B37" xr:uid="{00000000-0002-0000-0600-000003000000}">
+      <formula1>AA34:AF34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AM38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B47" xr:uid="{00000000-0002-0000-0600-000004000000}">
+      <formula1>AA42:AM42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AD42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AC54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
-      <formula1>AA81:AC81</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AF91</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B72" xr:uid="{00000000-0002-0000-0600-000005000000}">
+      <formula1>AA51:AD51</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7558,20 +8840,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>529</v>
       </c>
@@ -7579,12 +8863,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>532</v>
       </c>
@@ -7592,7 +8876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -7603,10 +8887,10 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>535</v>
       </c>
@@ -7614,7 +8898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -7625,15 +8909,17 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>538</v>
       </c>
@@ -7641,7 +8927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -7652,15 +8938,17 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>541</v>
       </c>
@@ -7668,7 +8956,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
@@ -7679,10 +8967,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
+    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>545</v>
       </c>
@@ -7690,7 +8980,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -7701,13 +8991,15 @@
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
+    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>551</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>549</v>
       </c>
@@ -7724,7 +9016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
+    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>553</v>
       </c>
@@ -7732,7 +9024,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
+    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -7743,13 +9035,15 @@
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
+    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>556</v>
+      </c>
       <c r="AA30" s="6" t="s">
         <v>556</v>
       </c>
@@ -7759,13 +9053,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA25:AE25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>AA30:AB30</formula1>
     </dataValidation>
   </dataValidations>
@@ -7774,20 +9068,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AE172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>557</v>
       </c>
@@ -7795,12 +9091,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>560</v>
       </c>
@@ -7808,7 +9104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -7819,10 +9115,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>563</v>
       </c>
@@ -7830,7 +9126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -7841,15 +9137,17 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>566</v>
       </c>
@@ -7857,7 +9155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -7868,15 +9166,17 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>569</v>
       </c>
@@ -7884,7 +9184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
@@ -7895,10 +9195,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>572</v>
       </c>
@@ -7906,7 +9208,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -7917,13 +9219,15 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>578</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>576</v>
       </c>
@@ -7937,7 +9241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>579</v>
       </c>
@@ -7945,7 +9249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -7956,15 +9260,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
+    <row r="29" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>582</v>
       </c>
@@ -7972,12 +9278,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>585</v>
       </c>
@@ -7985,7 +9291,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>121</v>
       </c>
@@ -7996,10 +9302,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>589</v>
       </c>
@@ -8007,7 +9315,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -8018,15 +9326,17 @@
         <v>592</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>593</v>
       </c>
@@ -8034,7 +9344,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>46</v>
       </c>
@@ -8045,15 +9355,17 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="178" customHeight="1">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
+    <row r="48" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>597</v>
       </c>
@@ -8061,12 +9373,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>600</v>
       </c>
@@ -8074,7 +9386,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>46</v>
       </c>
@@ -8085,15 +9397,17 @@
         <v>602</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="178" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
+    <row r="57" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>603</v>
       </c>
@@ -8101,12 +9415,12 @@
         <v>604</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>606</v>
       </c>
@@ -8114,7 +9428,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
@@ -8125,15 +9439,17 @@
         <v>609</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="178" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
+    <row r="66" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>610</v>
       </c>
@@ -8141,7 +9457,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
+    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>46</v>
       </c>
@@ -8152,15 +9468,17 @@
         <v>613</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
+    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="178" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
+    <row r="71" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="11" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>614</v>
       </c>
@@ -8168,12 +9486,12 @@
         <v>615</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
+    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>617</v>
       </c>
@@ -8181,7 +9499,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
+    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>46</v>
       </c>
@@ -8192,15 +9510,17 @@
         <v>619</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="82" spans="1:31" ht="24" customHeight="1">
+    <row r="80" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>620</v>
       </c>
@@ -8208,7 +9528,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1">
+    <row r="83" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>65</v>
       </c>
@@ -8219,8 +9539,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1">
-      <c r="B84" s="11"/>
+    <row r="84" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
+        <v>626</v>
+      </c>
       <c r="AA84" s="6" t="s">
         <v>624</v>
       </c>
@@ -8237,7 +9559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="24" customHeight="1">
+    <row r="86" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>628</v>
       </c>
@@ -8245,7 +9567,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="24" customHeight="1">
+    <row r="87" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>65</v>
       </c>
@@ -8256,8 +9578,10 @@
         <v>631</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
+    <row r="88" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="11" t="s">
+        <v>633</v>
+      </c>
       <c r="AA88" s="6" t="s">
         <v>632</v>
       </c>
@@ -8274,7 +9598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="24" customHeight="1">
+    <row r="91" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>636</v>
       </c>
@@ -8282,12 +9606,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1">
+    <row r="92" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="24" customHeight="1">
+    <row r="94" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>639</v>
       </c>
@@ -8295,7 +9619,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="24" customHeight="1">
+    <row r="95" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>46</v>
       </c>
@@ -8306,10 +9630,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    <row r="96" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
         <v>642</v>
       </c>
@@ -8317,12 +9643,12 @@
         <v>643</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
+    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>645</v>
       </c>
@@ -8330,7 +9656,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>46</v>
       </c>
@@ -8341,10 +9667,12 @@
         <v>647</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>648</v>
       </c>
@@ -8352,12 +9680,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
+    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>651</v>
       </c>
@@ -8365,7 +9693,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
+    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>121</v>
       </c>
@@ -8376,10 +9704,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="B112" s="11"/>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
+    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>653</v>
       </c>
@@ -8387,7 +9717,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
+    <row r="115" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>46</v>
       </c>
@@ -8398,15 +9728,17 @@
         <v>654</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
+    <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
+    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="11" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>655</v>
       </c>
@@ -8414,7 +9746,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
+    <row r="120" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>46</v>
       </c>
@@ -8425,15 +9757,17 @@
         <v>658</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
+    <row r="121" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
+    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="11" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>659</v>
       </c>
@@ -8441,7 +9775,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
+    <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>46</v>
       </c>
@@ -8452,15 +9786,17 @@
         <v>661</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="178" customHeight="1">
-      <c r="B127" s="11"/>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
+    <row r="127" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="11" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>662</v>
       </c>
@@ -8468,12 +9804,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
+    <row r="131" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
+    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>665</v>
       </c>
@@ -8481,7 +9817,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
+    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>121</v>
       </c>
@@ -8492,10 +9828,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
+    <row r="135" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>667</v>
       </c>
@@ -8503,7 +9841,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
+    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>46</v>
       </c>
@@ -8514,15 +9852,17 @@
         <v>668</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
+    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
+    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="11" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>669</v>
       </c>
@@ -8530,7 +9870,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
+    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>46</v>
       </c>
@@ -8541,15 +9881,17 @@
         <v>670</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
+    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="11"/>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
+    <row r="145" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="11" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>671</v>
       </c>
@@ -8557,7 +9899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
+    <row r="148" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>46</v>
       </c>
@@ -8568,15 +9910,17 @@
         <v>672</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
+    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="178" customHeight="1">
-      <c r="B150" s="11"/>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
+    <row r="150" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="11" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>673</v>
       </c>
@@ -8584,12 +9928,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
+    <row r="154" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="13" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
+    <row r="156" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>676</v>
       </c>
@@ -8597,7 +9941,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
+    <row r="157" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>116</v>
       </c>
@@ -8608,10 +9952,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
+    <row r="158" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>680</v>
       </c>
@@ -8619,7 +9965,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
+    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>46</v>
       </c>
@@ -8630,15 +9976,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
+    <row r="162" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
+    <row r="163" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="11"/>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
+    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>684</v>
       </c>
@@ -8646,7 +9992,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
+    <row r="166" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
         <v>46</v>
       </c>
@@ -8657,15 +10003,15 @@
         <v>685</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
+    <row r="167" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
+    <row r="168" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="11"/>
     </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
+    <row r="170" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>686</v>
       </c>
@@ -8673,7 +10019,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24" customHeight="1">
+    <row r="171" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
         <v>46</v>
       </c>
@@ -8684,33 +10030,21 @@
         <v>689</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
+    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B135 B112 B38" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B88" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>AA84:AE84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
-      <formula1>AA88:AE88</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158" xr:uid="{00000000-0002-0000-0800-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
